--- a/public/assets/xlsx/plantilla-reporte.xlsx
+++ b/public/assets/xlsx/plantilla-reporte.xlsx
@@ -5,18 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KYP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\codeigniter-app\public\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F80AD995-74E9-4E7A-B7B9-B6FB95B8A960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C928D8A9-6A6C-40F1-99E5-D4E9552894D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B8158CBB-8CC5-4D99-9E23-F2A8F6921EDE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{B8158CBB-8CC5-4D99-9E23-F2A8F6921EDE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Contratos" sheetId="1" r:id="rId1"/>
+    <sheet name="Ventas Accesorios" sheetId="2" r:id="rId2"/>
+    <sheet name="Pagos Contratos" sheetId="3" r:id="rId3"/>
+    <sheet name="Pagos Ventas" sheetId="4" r:id="rId4"/>
+    <sheet name="Citas" sheetId="5" r:id="rId5"/>
+    <sheet name="Mantenimiento" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$4:$S$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Citas!$A$4:$H$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Contratos!$A$4:$S$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Mantenimiento!$A$4:$H$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Pagos Contratos'!$A$4:$J$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Pagos Ventas'!$A$4:$J$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Ventas Accesorios'!$A$4:$S$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="29">
   <si>
     <t>N°</t>
   </si>
@@ -92,13 +102,40 @@
     <t>OBSERVACION</t>
   </si>
   <si>
-    <t>REPORTE DE CAJA VENTAS ()</t>
-  </si>
-  <si>
     <t>CANT.</t>
   </si>
   <si>
     <t>DESC.</t>
+  </si>
+  <si>
+    <t>REPORTE DE CAJA VENTAS (CONTRATOS)</t>
+  </si>
+  <si>
+    <t>REPORTE DE CAJA VENTAS (VENTAS DE ACCESORIOS)</t>
+  </si>
+  <si>
+    <t>ITEMS</t>
+  </si>
+  <si>
+    <t>TIPO DE SERVICIO</t>
+  </si>
+  <si>
+    <t>MONTO PAGADO</t>
+  </si>
+  <si>
+    <t>REPORTE DE CAJA VENTAS (PAGOS DE CONTRATOS)</t>
+  </si>
+  <si>
+    <t>REPORTE DE CAJA VENTAS (PAGOS DE VENTAS ACCESORIOS)</t>
+  </si>
+  <si>
+    <t>REPORTE DE CAJA VENTAS (CITAS)</t>
+  </si>
+  <si>
+    <t>REPORTE DE CAJA VENTAS (MANTENIMIENTO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTO </t>
   </si>
 </sst>
 </file>
@@ -107,7 +144,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-[$S/-280A]\ * #,##0.00_-;\-[$S/-280A]\ * #,##0.00_-;_-[$S/-280A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;S/&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -130,7 +167,7 @@
       <name val="ADLaM Display"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +186,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -163,44 +206,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -518,139 +606,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C93152-E243-4459-BE0A-704A4FEAD58A}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" style="11"/>
-    <col min="11" max="11" width="14.44140625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="14" customWidth="1"/>
-    <col min="13" max="15" width="11.5546875" style="14"/>
-    <col min="16" max="16" width="17.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
-    <col min="19" max="19" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="34" style="10" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" style="20" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" style="20" customWidth="1"/>
+    <col min="13" max="13" width="22.6640625" style="20" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="20" customWidth="1"/>
+    <col min="15" max="15" width="21.21875" style="20" customWidth="1"/>
+    <col min="16" max="16" width="21.44140625" style="8" customWidth="1"/>
+    <col min="17" max="17" width="17.88671875" style="8" customWidth="1"/>
+    <col min="18" max="18" width="20" style="11" customWidth="1"/>
+    <col min="19" max="19" width="20" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="9"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="19" t="s">
         <v>12</v>
       </c>
       <c r="P4" s="3" t="s">
@@ -659,7 +750,7 @@
       <c r="Q4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="S4" s="3" t="s">
@@ -674,4 +765,514 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1938E940-7299-4BF0-9804-691E93E86578}">
+  <dimension ref="A1:S4"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J1:O1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="32" style="10" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="6"/>
+    <col min="10" max="10" width="13.21875" style="20" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" style="20"/>
+    <col min="13" max="13" width="13.6640625" style="20" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" style="20" customWidth="1"/>
+    <col min="15" max="15" width="17.44140625" style="20" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" style="10" customWidth="1"/>
+    <col min="18" max="18" width="13" style="6" customWidth="1"/>
+    <col min="19" max="19" width="18.77734375" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A4:S4" xr:uid="{1938E940-7299-4BF0-9804-691E93E86578}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:S2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09FD30F-AE51-4C58-A32D-C4D3FA6A87DE}">
+  <dimension ref="A1:S4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" style="6"/>
+    <col min="2" max="2" width="19.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="38" style="10" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="29.88671875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="25.21875" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+    </row>
+    <row r="2" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A4:J4" xr:uid="{A09FD30F-AE51-4C58-A32D-C4D3FA6A87DE}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA042EB0-943B-4F43-B630-DBB4F80D2CF2}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="11.5546875" style="6"/>
+    <col min="5" max="5" width="33.21875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="27.109375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="27.109375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A4:J4" xr:uid="{DA042EB0-943B-4F43-B630-DBB4F80D2CF2}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EDC99C-0656-4B39-A359-226B07E293EF}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" style="6"/>
+    <col min="2" max="2" width="18" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="6"/>
+    <col min="4" max="4" width="13.21875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="27" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+    </row>
+    <row r="2" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A4:H4" xr:uid="{65EDC99C-0656-4B39-A359-226B07E293EF}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7728405D-2F93-4B93-8088-77449635B388}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="41.77734375" customWidth="1"/>
+    <col min="6" max="6" width="40.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A4:H4" xr:uid="{7728405D-2F93-4B93-8088-77449635B388}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>